--- a/biology/Zoologie/Le_Clan_des_chiens___Sur_la_piste_des_hommes/Le_Clan_des_chiens___Sur_la_piste_des_hommes.xlsx
+++ b/biology/Zoologie/Le_Clan_des_chiens___Sur_la_piste_des_hommes/Le_Clan_des_chiens___Sur_la_piste_des_hommes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Clan des chiens : Sur la piste des hommes (The Last Dogs) est un roman écrit par Christopher Holt[1], de son vrai nom Jeff Sampson (en)[2]. Le livre a été publié en 2012. Les héros principaux sont des chiens qui vont traverser différentes histoires et vivre une grande histoire d'amitié[3],[4].
+Le Clan des chiens : Sur la piste des hommes (The Last Dogs) est un roman écrit par Christopher Holt, de son vrai nom Jeff Sampson (en). Le livre a été publié en 2012. Les héros principaux sont des chiens qui vont traverser différentes histoires et vivre une grande histoire d'amitié,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Max est un labrador, qui vit dans une ferme avec ses propriétaires, Charlie et Emma. Max est placé dans un chenil car ses maîtres sont partis en vacances. Mais très vite Max se rend compte que Vito n'est pas venu le nourrir depuis des jours. Alors qu'il essaye de s'échapper il croise un teckel qui lui explique comment s'évader du chenil. Peu après Max se retrouve dehors, confronté à un problème : une meute de loups.
 Un loup prénommé Vaurien se bat contre Max qui va se faire aider par Rocky, le petit teckel. Ensemble ils repoussent Vaurien, Dolph et sa meute pour profiter des croquettes. Les deux amis quittent le chenil car celui-ci prend feu, alors Max décide d'emmener Rocky dans sa demeure, afin d'y retrouver son amie, Madame, la vieille labrador.
